--- a/biology/Botanique/Œneo/Œneo.xlsx
+++ b/biology/Botanique/Œneo/Œneo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92neo</t>
+          <t>Œneo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Œneo (anciennement Sabaté-Diosos) est une société française, spécialisée en tonnellerie et bouchage du vin.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92neo</t>
+          <t>Œneo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le groupe est issu du rapprochement, en 2001, de la société Sabaté, spécialiste du bouchage de vin et Diosos, leader sur le marché des fûts de chêne[1].
-Fin décembre 2019, Oeneo annonce vouloir quitter la bourse de Paris afin d'échapper aux contraintes de publications des sociétés cotées[2]. La famille Hériard-Dubreuil a créé la société Caspar dans l'optique de procéder à une OPA lui permettant de contrôler intégralement Oeneo[3].
-La société Caspa ouvre l'OPA du 6 au 19 février 2020 au prix de 13,50 euros par action. En réponse, Polygon Global Partners a déclaré à l'AMF avoir dépassé le 18 février, les seuils de 10% du capital et des droits de vote d'Oeneo[4]. Ce faisant la société d'investissement newyorkaise ôte à Caspar la possibilité de demander un retrait obligatoire[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe est issu du rapprochement, en 2001, de la société Sabaté, spécialiste du bouchage de vin et Diosos, leader sur le marché des fûts de chêne.
+Fin décembre 2019, Oeneo annonce vouloir quitter la bourse de Paris afin d'échapper aux contraintes de publications des sociétés cotées. La famille Hériard-Dubreuil a créé la société Caspar dans l'optique de procéder à une OPA lui permettant de contrôler intégralement Oeneo.
+La société Caspa ouvre l'OPA du 6 au 19 février 2020 au prix de 13,50 euros par action. En réponse, Polygon Global Partners a déclaré à l'AMF avoir dépassé le 18 février, les seuils de 10% du capital et des droits de vote d'Oeneo. Ce faisant la société d'investissement newyorkaise ôte à Caspar la possibilité de demander un retrait obligatoire.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92neo</t>
+          <t>Œneo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Œneo produit et commercialise des produits de tonnellerie (fûts, tonneaux, cuves, foudres) et produits alternatifs (poudres, copeaux, staves) sous la marque Seguin Moreau, ainsi que des produits de bouchage sous les marques Diam et Piedade.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92neo</t>
+          <t>Œneo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au 28 août 2020[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 28 août 2020
 </t>
         </is>
       </c>
